--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codeing\Java\Project\Remember\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\Desktop\Remember-Crad-Project-Java-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B727C7-344B-4F75-8C17-88067203383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038F00F-594D-4E32-91CE-137E4C36C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
+    <sheet name="x1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,83 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>เพิ่มความสามารถ</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>ความคิดริเริ่ม</t>
+  </si>
+  <si>
+    <t>innovate</t>
+  </si>
+  <si>
+    <t>นวัตกรรม</t>
+  </si>
+  <si>
+    <t>allocate</t>
+  </si>
+  <si>
+    <t>จัดสรร</t>
+  </si>
+  <si>
+    <t>compensate</t>
+  </si>
+  <si>
+    <t>ชดเชย</t>
+  </si>
+  <si>
+    <t>coordination</t>
+  </si>
+  <si>
+    <t>การประสานงาน</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>ดำเนินการ</t>
+  </si>
+  <si>
+    <t>incentive</t>
+  </si>
+  <si>
+    <t>สิ่งบันเทิง</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>การรวมกัน</t>
+  </si>
+  <si>
+    <t>legitimate</t>
+  </si>
+  <si>
+    <t>ถูกต้อง</t>
+  </si>
+  <si>
+    <t>maximize</t>
+  </si>
+  <si>
+    <t>ทำให้เต็มที่</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>วัตถุประสงค์</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -336,15 +414,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9B588A-6442-473F-A76C-532D498BA0CE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D56718D-4A09-4CC5-897E-0869A48DDB07}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" activeCellId="1" sqref="D12 K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\Desktop\Remember-Crad-Project-Java-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Remember-Crad-Project-Java-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038F00F-594D-4E32-91CE-137E4C36C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E0927E-47F6-4F9F-B5CA-BD7C5CAB0A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
-    <sheet name="x1" sheetId="7" r:id="rId2"/>
+    <sheet name="Word" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,78 +26,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>enhance</t>
-  </si>
-  <si>
-    <t>เพิ่มความสามารถ</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>ความคิดริเริ่ม</t>
-  </si>
-  <si>
-    <t>innovate</t>
-  </si>
-  <si>
-    <t>นวัตกรรม</t>
-  </si>
-  <si>
-    <t>allocate</t>
-  </si>
-  <si>
-    <t>จัดสรร</t>
-  </si>
-  <si>
-    <t>compensate</t>
-  </si>
-  <si>
-    <t>ชดเชย</t>
-  </si>
-  <si>
-    <t>coordination</t>
-  </si>
-  <si>
-    <t>การประสานงาน</t>
-  </si>
-  <si>
-    <t>implement</t>
-  </si>
-  <si>
-    <t>ดำเนินการ</t>
-  </si>
-  <si>
-    <t>incentive</t>
-  </si>
-  <si>
-    <t>สิ่งบันเทิง</t>
-  </si>
-  <si>
-    <t>integration</t>
-  </si>
-  <si>
-    <t>การรวมกัน</t>
-  </si>
-  <si>
-    <t>legitimate</t>
-  </si>
-  <si>
-    <t>ถูกต้อง</t>
-  </si>
-  <si>
-    <t>maximize</t>
-  </si>
-  <si>
-    <t>ทำให้เต็มที่</t>
-  </si>
-  <si>
-    <t>objective</t>
-  </si>
-  <si>
-    <t>วัตถุประสงค์</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>สวัสดี</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>ขอบคุณ</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>ข้าว</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>น้ำ</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>หนังสือ</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>โทรทัศน์</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>เครื่องประดับ</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>สัตว์</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>รถยนต์</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>ปากกา</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>บ้าน</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>ต้นไม้</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>ดอกไม้</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>อาหาร</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>ผลไม้</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>ผัก</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>แม่</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>พ่อ</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>พี่ชาย</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>พี่สาว</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>เพื่อน</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>รัก</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>เงิน</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>เวลา</t>
   </si>
 </sst>
 </file>
@@ -137,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D56718D-4A09-4CC5-897E-0869A48DDB07}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CB103D-B800-42AB-8F4F-791BE875AA7D}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" activeCellId="1" sqref="D12 K7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,7 +606,104 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>